--- a/backend/projects/project-a-123-sunset-blvd/data/05_QUOTES_ESTIMATES/Initial_Project_Budget_Estimate.xlsx
+++ b/backend/projects/project-a-123-sunset-blvd/data/05_QUOTES_ESTIMATES/Initial_Project_Budget_Estimate.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget Estimate" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Budget Estimate" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,25 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,7 +563,6 @@
       <c r="B9" t="n">
         <v>28000</v>
       </c>
-      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -608,7 +588,6 @@
       <c r="B11" t="n">
         <v>28000</v>
       </c>
-      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -619,7 +598,6 @@
       <c r="B12" t="n">
         <v>8000</v>
       </c>
-      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -630,7 +608,6 @@
       <c r="B13" t="n">
         <v>22000</v>
       </c>
-      <c r="C13" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -717,7 +694,398 @@
         <f>SUM(B2:B19)</f>
         <v/>
       </c>
-      <c r="C20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Item 20</t>
+        </is>
+      </c>
+      <c r="B21">
+        <f>SUM(B2:B19)</f>
+        <v/>
+      </c>
+      <c r="C21" t="n">
+        <v>44202</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Item 21</t>
+        </is>
+      </c>
+      <c r="B22">
+        <f>SUM(B2:B19)</f>
+        <v/>
+      </c>
+      <c r="C22" t="n">
+        <v>41063</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Item 22</t>
+        </is>
+      </c>
+      <c r="B23">
+        <f>SUM(B2:B19)</f>
+        <v/>
+      </c>
+      <c r="C23" t="n">
+        <v>19807</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+      <c r="B24">
+        <f>SUM(B2:B19)</f>
+        <v/>
+      </c>
+      <c r="C24" t="n">
+        <v>24880</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+      <c r="B25">
+        <f>SUM(B2:B19)</f>
+        <v/>
+      </c>
+      <c r="C25" t="n">
+        <v>23932</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="B26">
+        <f>SUM(B2:B19)</f>
+        <v/>
+      </c>
+      <c r="C26" t="n">
+        <v>39552</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="B27">
+        <f>SUM(B2:B19)</f>
+        <v/>
+      </c>
+      <c r="C27" t="n">
+        <v>36317</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="B28">
+        <f>SUM(B2:B19)</f>
+        <v/>
+      </c>
+      <c r="C28" t="n">
+        <v>34034</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="B29">
+        <f>SUM(B2:B19)</f>
+        <v/>
+      </c>
+      <c r="C29" t="n">
+        <v>13292</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="B30">
+        <f>SUM(B2:B19)</f>
+        <v/>
+      </c>
+      <c r="C30" t="n">
+        <v>21693</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="B31">
+        <f>SUM(B2:B19)</f>
+        <v/>
+      </c>
+      <c r="C31" t="n">
+        <v>14043</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+      <c r="B32">
+        <f>SUM(B2:B19)</f>
+        <v/>
+      </c>
+      <c r="C32" t="n">
+        <v>31888</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+      <c r="B33">
+        <f>SUM(B2:B19)</f>
+        <v/>
+      </c>
+      <c r="C33" t="n">
+        <v>8495</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Item 33</t>
+        </is>
+      </c>
+      <c r="B34">
+        <f>SUM(B2:B19)</f>
+        <v/>
+      </c>
+      <c r="C34" t="n">
+        <v>16959</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Item 34</t>
+        </is>
+      </c>
+      <c r="B35">
+        <f>SUM(B2:B19)</f>
+        <v/>
+      </c>
+      <c r="C35" t="n">
+        <v>6859</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Item 35</t>
+        </is>
+      </c>
+      <c r="B36">
+        <f>SUM(B2:B19)</f>
+        <v/>
+      </c>
+      <c r="C36" t="n">
+        <v>31341</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Item 36</t>
+        </is>
+      </c>
+      <c r="B37">
+        <f>SUM(B2:B19)</f>
+        <v/>
+      </c>
+      <c r="C37" t="n">
+        <v>7659</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Item 37</t>
+        </is>
+      </c>
+      <c r="B38">
+        <f>SUM(B2:B19)</f>
+        <v/>
+      </c>
+      <c r="C38" t="n">
+        <v>33442</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Item 38</t>
+        </is>
+      </c>
+      <c r="B39">
+        <f>SUM(B2:B19)</f>
+        <v/>
+      </c>
+      <c r="C39" t="n">
+        <v>4067</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Item 39</t>
+        </is>
+      </c>
+      <c r="B40">
+        <f>SUM(B2:B19)</f>
+        <v/>
+      </c>
+      <c r="C40" t="n">
+        <v>4034</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Item 40</t>
+        </is>
+      </c>
+      <c r="B41">
+        <f>SUM(B2:B19)</f>
+        <v/>
+      </c>
+      <c r="C41" t="n">
+        <v>14619</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Item 41</t>
+        </is>
+      </c>
+      <c r="B42">
+        <f>SUM(B2:B19)</f>
+        <v/>
+      </c>
+      <c r="C42" t="n">
+        <v>8951</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Item 42</t>
+        </is>
+      </c>
+      <c r="B43">
+        <f>SUM(B2:B19)</f>
+        <v/>
+      </c>
+      <c r="C43" t="n">
+        <v>4242</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Item 43</t>
+        </is>
+      </c>
+      <c r="B44">
+        <f>SUM(B2:B19)</f>
+        <v/>
+      </c>
+      <c r="C44" t="n">
+        <v>41341</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Item 44</t>
+        </is>
+      </c>
+      <c r="B45">
+        <f>SUM(B2:B19)</f>
+        <v/>
+      </c>
+      <c r="C45" t="n">
+        <v>34739</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Item 45</t>
+        </is>
+      </c>
+      <c r="B46">
+        <f>SUM(B2:B19)</f>
+        <v/>
+      </c>
+      <c r="C46" t="n">
+        <v>11107</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Item 46</t>
+        </is>
+      </c>
+      <c r="B47">
+        <f>SUM(B2:B19)</f>
+        <v/>
+      </c>
+      <c r="C47" t="n">
+        <v>8017</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Item 47</t>
+        </is>
+      </c>
+      <c r="B48">
+        <f>SUM(B2:B19)</f>
+        <v/>
+      </c>
+      <c r="C48" t="n">
+        <v>27718</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
